--- a/data/trans_orig/P6716-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6716-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>16262</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9012</v>
+        <v>9265</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25979</v>
+        <v>26213</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.128207030714761</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07104896772548774</v>
+        <v>0.07304665647815625</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2048137127307848</v>
+        <v>0.2066593849579433</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -763,19 +763,19 @@
         <v>10540</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5484</v>
+        <v>5108</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18892</v>
+        <v>17367</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.122158084811874</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06356091308523669</v>
+        <v>0.05919614975132648</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2189526864242338</v>
+        <v>0.2012798874358859</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -784,19 +784,19 @@
         <v>26802</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18318</v>
+        <v>18387</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40217</v>
+        <v>39585</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1257581175647502</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08594805370606919</v>
+        <v>0.08627643002440427</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1887034528332003</v>
+        <v>0.1857364155374387</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>7541</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3228</v>
+        <v>3367</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15012</v>
+        <v>14284</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05945502282503525</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02544761688497938</v>
+        <v>0.02654254571365328</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1183516980597001</v>
+        <v>0.1126117135687867</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -834,19 +834,19 @@
         <v>3440</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>978</v>
+        <v>846</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9131</v>
+        <v>8685</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03986942553023691</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01133497568216851</v>
+        <v>0.009807957359513814</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1058285158512672</v>
+        <v>0.1006560177809829</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -855,19 +855,19 @@
         <v>10981</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5128</v>
+        <v>5666</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19333</v>
+        <v>19313</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05152580217468099</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02406254747848125</v>
+        <v>0.02658547029309508</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09071064019409514</v>
+        <v>0.09061923525267918</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>22512</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14288</v>
+        <v>14561</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32090</v>
+        <v>33377</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1774830822140362</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1126428617030005</v>
+        <v>0.1148019865090811</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2529924827872417</v>
+        <v>0.2631434564415921</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -905,19 +905,19 @@
         <v>17618</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10947</v>
+        <v>10549</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27541</v>
+        <v>27471</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2041934599390791</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1268700667277431</v>
+        <v>0.1222611357788562</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3191993297586724</v>
+        <v>0.3183839413201532</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>36</v>
@@ -926,19 +926,19 @@
         <v>40130</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>29467</v>
+        <v>29518</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>53326</v>
+        <v>52870</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1882967671605975</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1382647081525696</v>
+        <v>0.1385018768149114</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2502113034610282</v>
+        <v>0.2480742977385125</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>12447</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7004</v>
+        <v>6953</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20528</v>
+        <v>20428</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09813490126955725</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05521711925520626</v>
+        <v>0.05481522407337609</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1618392834682546</v>
+        <v>0.1610493635651441</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -976,19 +976,19 @@
         <v>9054</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4239</v>
+        <v>4813</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16201</v>
+        <v>16367</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1049351230778654</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04913417097400595</v>
+        <v>0.05578705248278078</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1877704851490779</v>
+        <v>0.1896943676445256</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -997,19 +997,19 @@
         <v>21502</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13686</v>
+        <v>14641</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31562</v>
+        <v>32568</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1008879681471116</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06421537793059252</v>
+        <v>0.06869879083016059</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1480946091156301</v>
+        <v>0.1528137032222243</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>68078</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>56129</v>
+        <v>56404</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>79663</v>
+        <v>79716</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5367199629766103</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4425196548558937</v>
+        <v>0.4446899294246862</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6280615767697254</v>
+        <v>0.6284798492895932</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -1047,19 +1047,19 @@
         <v>45630</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>35501</v>
+        <v>35051</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>54716</v>
+        <v>54739</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5288439066409445</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4114461455160041</v>
+        <v>0.406238544635083</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6341413400176624</v>
+        <v>0.6344090551385856</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>107</v>
@@ -1068,19 +1068,19 @@
         <v>113708</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>97795</v>
+        <v>98266</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>129586</v>
+        <v>127588</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5335313449528597</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4588671122660152</v>
+        <v>0.4610770830449863</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6080343941765027</v>
+        <v>0.5986605323033761</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>4893</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1868</v>
+        <v>1943</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10351</v>
+        <v>11126</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02840906363733608</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01084599250575261</v>
+        <v>0.01128098267389598</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0600988015041832</v>
+        <v>0.06459695241202064</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1193,19 +1193,19 @@
         <v>5115</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1935</v>
+        <v>1990</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10406</v>
+        <v>11190</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04168918014517933</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01577008321170706</v>
+        <v>0.01621676968942537</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08482072942024776</v>
+        <v>0.0912043512610141</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -1214,19 +1214,19 @@
         <v>10008</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4994</v>
+        <v>5089</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18059</v>
+        <v>18211</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03393351355369356</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01693338745892022</v>
+        <v>0.01725483220187415</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06123187329764532</v>
+        <v>0.06174796128440905</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>7823</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3768</v>
+        <v>3805</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14666</v>
+        <v>14035</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04541904084719944</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02187397940763501</v>
+        <v>0.02208909553765996</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08514781012542443</v>
+        <v>0.08148735527373274</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -1264,19 +1264,19 @@
         <v>4029</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9530</v>
+        <v>9288</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0328422562938974</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.00821341572921643</v>
+        <v>0.008186168449370869</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07767481226442681</v>
+        <v>0.0757027908970896</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -1285,19 +1285,19 @@
         <v>11852</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6682</v>
+        <v>6770</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19837</v>
+        <v>20187</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0401871728637747</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02265798948094525</v>
+        <v>0.02295456058631569</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06726108614158285</v>
+        <v>0.06844667826080802</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>25243</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17116</v>
+        <v>16935</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>36275</v>
+        <v>37773</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1465549265990629</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09937584624270816</v>
+        <v>0.09832464211010561</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2106088642734362</v>
+        <v>0.2193064782336976</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -1335,19 +1335,19 @@
         <v>17864</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10174</v>
+        <v>10747</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>27693</v>
+        <v>27025</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.145604742980338</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08292667351737984</v>
+        <v>0.08759691823086541</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2257163617200257</v>
+        <v>0.2202763651618048</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>40</v>
@@ -1356,19 +1356,19 @@
         <v>43107</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30133</v>
+        <v>32036</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>56502</v>
+        <v>56718</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1461596558339391</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1021696796972622</v>
+        <v>0.1086223184238402</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.191579170083189</v>
+        <v>0.1923128253622359</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>19190</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12245</v>
+        <v>12241</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28431</v>
+        <v>29257</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1114134497336963</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07109121736039874</v>
+        <v>0.07106973007189689</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1650640448537425</v>
+        <v>0.1698601299362772</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -1406,19 +1406,19 @@
         <v>15318</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8513</v>
+        <v>8985</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24696</v>
+        <v>24664</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1248497132373539</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06938910501660797</v>
+        <v>0.07323842736960066</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2012916333767228</v>
+        <v>0.2010310534923898</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -1427,19 +1427,19 @@
         <v>34507</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24053</v>
+        <v>24307</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47007</v>
+        <v>46379</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1170028558767146</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08155425078402288</v>
+        <v>0.08241745795860202</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1593834518703362</v>
+        <v>0.1572546096709989</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>115091</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>102942</v>
+        <v>101712</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>128084</v>
+        <v>126927</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6682035191827053</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5976658766207625</v>
+        <v>0.5905255989355203</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7436392153787922</v>
+        <v>0.7369190481306273</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>72</v>
@@ -1477,19 +1477,19 @@
         <v>80362</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>68410</v>
+        <v>67768</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>90916</v>
+        <v>90313</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6550141073432314</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5575932698036011</v>
+        <v>0.5523598241382434</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7410307046438107</v>
+        <v>0.7361180343209989</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>177</v>
@@ -1498,19 +1498,19 @@
         <v>195454</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>178581</v>
+        <v>177353</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>212248</v>
+        <v>210303</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6627168018718781</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6055073431150498</v>
+        <v>0.6013443590221141</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7196616802542187</v>
+        <v>0.7130645164200272</v>
       </c>
     </row>
     <row r="15">
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4720</v>
+        <v>4888</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006530326533132571</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03296032487180092</v>
+        <v>0.03413218071881215</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1623,19 +1623,19 @@
         <v>2932</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8086</v>
+        <v>7032</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03559430973300833</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01152892911641063</v>
+        <v>0.01145334473400204</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09816923572068698</v>
+        <v>0.08537689774428754</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1644,19 +1644,19 @@
         <v>3867</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9699</v>
+        <v>9589</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01714311116869896</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004336179048750788</v>
+        <v>0.004332827545694203</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04299652582592572</v>
+        <v>0.04250998867911313</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>10609</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5760</v>
+        <v>4904</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19181</v>
+        <v>18660</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07408693679220459</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04022281441526663</v>
+        <v>0.03424354424764204</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1339443302406823</v>
+        <v>0.1303071921473935</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7120</v>
+        <v>5239</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01197029922632442</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08644461201570947</v>
+        <v>0.06360277259157565</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -1715,19 +1715,19 @@
         <v>11595</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6633</v>
+        <v>6646</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20533</v>
+        <v>20300</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05140489447754219</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02940569019729536</v>
+        <v>0.02946209081889626</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0910275706677713</v>
+        <v>0.08999763760126277</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>26535</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18556</v>
+        <v>18368</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>36378</v>
+        <v>36662</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1853012852425528</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.129582125809673</v>
+        <v>0.1282691416188163</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2540349514665951</v>
+        <v>0.2560189022941033</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>23</v>
@@ -1765,19 +1765,19 @@
         <v>24113</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16190</v>
+        <v>16358</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>33252</v>
+        <v>34084</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2927511645747526</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1965592749800582</v>
+        <v>0.1985996894392745</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4037113462173877</v>
+        <v>0.4138086264770889</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>51</v>
@@ -1786,19 +1786,19 @@
         <v>50648</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>39099</v>
+        <v>38413</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>64824</v>
+        <v>65275</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2245368717974992</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1733362259538027</v>
+        <v>0.1702961227712004</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.287381650665654</v>
+        <v>0.2893812016829049</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>39818</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>30024</v>
+        <v>30140</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>51001</v>
+        <v>51600</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2780597727760502</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.209665336553068</v>
+        <v>0.2104715979501517</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3561505259498912</v>
+        <v>0.3603313833129624</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -1836,19 +1836,19 @@
         <v>14110</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8049</v>
+        <v>8028</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21887</v>
+        <v>21813</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1713105310792138</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09771999204449658</v>
+        <v>0.09746920547390137</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2657270411877163</v>
+        <v>0.2648343076465243</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>53</v>
@@ -1857,19 +1857,19 @@
         <v>53929</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41968</v>
+        <v>42396</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>68508</v>
+        <v>67557</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.239080025769336</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1860537018813045</v>
+        <v>0.1879515842691898</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3037136458932915</v>
+        <v>0.2994968064042505</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>65303</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>53182</v>
+        <v>54611</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>77295</v>
+        <v>78404</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4560216786560598</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3713785924091272</v>
+        <v>0.3813562591835063</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5397634252370777</v>
+        <v>0.5475122553413908</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>37</v>
@@ -1907,19 +1907,19 @@
         <v>40225</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30670</v>
+        <v>30723</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>49678</v>
+        <v>50092</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4883736953867008</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3723595127658441</v>
+        <v>0.3730039135736165</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6031424022213919</v>
+        <v>0.6081593538754342</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>104</v>
@@ -1928,19 +1928,19 @@
         <v>105528</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>89147</v>
+        <v>90109</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>119792</v>
+        <v>120592</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4678350967869236</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3952140420406396</v>
+        <v>0.3994781417549642</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5310694096092646</v>
+        <v>0.5346155778907224</v>
       </c>
     </row>
     <row r="21">
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5143</v>
+        <v>4379</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007115214730214913</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03604404977080851</v>
+        <v>0.03068613660328072</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5130</v>
+        <v>5006</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004159914826624544</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02101810975509254</v>
+        <v>0.02051332982875256</v>
       </c>
     </row>
     <row r="23">
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8071</v>
+        <v>7390</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01441583191436573</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0565625428298946</v>
+        <v>0.05178796511143015</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7382</v>
+        <v>8387</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02409687112800777</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07281794138783379</v>
+        <v>0.08273217710438321</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4</v>
@@ -2137,19 +2137,19 @@
         <v>4500</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11270</v>
+        <v>11515</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01843684538191947</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004997712669291601</v>
+        <v>0.004984513158751583</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04617737829234841</v>
+        <v>0.04717922960245806</v>
       </c>
     </row>
     <row r="24">
@@ -2166,19 +2166,19 @@
         <v>20675</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13256</v>
+        <v>13143</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>30582</v>
+        <v>30485</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1448953490562215</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09290321144969003</v>
+        <v>0.09210942977435425</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2143287457758488</v>
+        <v>0.2136443367256532</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>24</v>
@@ -2187,19 +2187,19 @@
         <v>25121</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>16713</v>
+        <v>17509</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>34792</v>
+        <v>35676</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2478136989089127</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.164875466586475</v>
+        <v>0.1727197011988437</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3432207948156064</v>
+        <v>0.351940700597523</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>43</v>
@@ -2208,19 +2208,19 @@
         <v>45796</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>34051</v>
+        <v>33851</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>57790</v>
+        <v>58675</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1876424200765435</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1395180095521767</v>
+        <v>0.138702039252879</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.236787179523845</v>
+        <v>0.2404136957384287</v>
       </c>
     </row>
     <row r="25">
@@ -2237,19 +2237,19 @@
         <v>43063</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32051</v>
+        <v>33170</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54836</v>
+        <v>54694</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3017946453054416</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2246246697595865</v>
+        <v>0.2324627032235178</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3843042408548701</v>
+        <v>0.3833064892921769</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -2258,19 +2258,19 @@
         <v>18486</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11715</v>
+        <v>11377</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>27218</v>
+        <v>27180</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1823626716804702</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1155651189936712</v>
+        <v>0.1122343667101263</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2685007808998661</v>
+        <v>0.2681270611025856</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>59</v>
@@ -2279,19 +2279,19 @@
         <v>61549</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>48026</v>
+        <v>47452</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>75782</v>
+        <v>76162</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2521886511756166</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1967812116189962</v>
+        <v>0.1944300884346317</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3105074172798918</v>
+        <v>0.3120651107479144</v>
       </c>
     </row>
     <row r="26">
@@ -2308,19 +2308,19 @@
         <v>75879</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>62768</v>
+        <v>64341</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>87958</v>
+        <v>88569</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5317789589937563</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4398953641013684</v>
+        <v>0.4509175303395974</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6164295602777815</v>
+        <v>0.6207108359550915</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>51</v>
@@ -2329,19 +2329,19 @@
         <v>55320</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>44061</v>
+        <v>44693</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>65053</v>
+        <v>64747</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5457267582826094</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.434653303270044</v>
+        <v>0.4408903592545988</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6417336611468157</v>
+        <v>0.6387224658024649</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>119</v>
@@ -2350,19 +2350,19 @@
         <v>131199</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>115302</v>
+        <v>113691</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>147688</v>
+        <v>148091</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5375721685392959</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.472435845185494</v>
+        <v>0.4658340561742767</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6051329779758262</v>
+        <v>0.6067839485240665</v>
       </c>
     </row>
     <row r="27">
@@ -2457,16 +2457,16 @@
         <v>890</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7569</v>
+        <v>7602</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03362947685011274</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01081601188145813</v>
+        <v>0.01080986183393098</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09194810661073977</v>
+        <v>0.09235964322715538</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -2475,19 +2475,19 @@
         <v>5782</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2625</v>
+        <v>2118</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>11558</v>
+        <v>11376</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1056182534897461</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04794476540927826</v>
+        <v>0.03869351072624461</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2111293780933521</v>
+        <v>0.2078031577010275</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>9</v>
@@ -2496,19 +2496,19 @@
         <v>8550</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3919</v>
+        <v>4177</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>15689</v>
+        <v>15536</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06238314656587625</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0285929014899352</v>
+        <v>0.03047470944945138</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1144719224708822</v>
+        <v>0.1133577656870581</v>
       </c>
     </row>
     <row r="29">
@@ -2525,19 +2525,19 @@
         <v>5641</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2099</v>
+        <v>2125</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12723</v>
+        <v>12911</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06853590111766659</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02549766819259174</v>
+        <v>0.02581167423900547</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1545677363365857</v>
+        <v>0.1568562493242052</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -2546,19 +2546,19 @@
         <v>5016</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1220</v>
+        <v>1202</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11692</v>
+        <v>11361</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0916231750886843</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0222943316004387</v>
+        <v>0.0219628802822249</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2135730555123326</v>
+        <v>0.2075249679339225</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>9</v>
@@ -2567,19 +2567,19 @@
         <v>10657</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5484</v>
+        <v>5217</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>19089</v>
+        <v>18964</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07775739204149636</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0400125917676644</v>
+        <v>0.03806363675059933</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1392755702959305</v>
+        <v>0.138366918854333</v>
       </c>
     </row>
     <row r="30">
@@ -2596,19 +2596,19 @@
         <v>17516</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11049</v>
+        <v>10421</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26009</v>
+        <v>25615</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2127924274681841</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1342265891583417</v>
+        <v>0.1265954105631869</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3159764774994543</v>
+        <v>0.3111907777334437</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>11</v>
@@ -2617,19 +2617,19 @@
         <v>11662</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5955</v>
+        <v>6686</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18127</v>
+        <v>18983</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2130302941621306</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1087821808329844</v>
+        <v>0.1221393094498474</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3311202358749341</v>
+        <v>0.346771490857619</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>28</v>
@@ -2638,19 +2638,19 @@
         <v>29178</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>19842</v>
+        <v>20949</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>39048</v>
+        <v>39822</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2128874358941275</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1447747808045534</v>
+        <v>0.1528520224512579</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2849030226994723</v>
+        <v>0.2905512076132631</v>
       </c>
     </row>
     <row r="31">
@@ -2667,7 +2667,7 @@
         <v>14251</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8421</v>
+        <v>8047</v>
       </c>
       <c r="F31" s="5" t="n">
         <v>22420</v>
@@ -2676,10 +2676,10 @@
         <v>0.1731320285508621</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1023015822638728</v>
+        <v>0.09775746048908951</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2723704716705796</v>
+        <v>0.2723754087013374</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>14</v>
@@ -2688,19 +2688,19 @@
         <v>13594</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>8365</v>
+        <v>8189</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>20728</v>
+        <v>20547</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2483240208190865</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.152800560681232</v>
+        <v>0.1495969932645619</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3786440572276591</v>
+        <v>0.3753381404913482</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>27</v>
@@ -2709,19 +2709,19 @@
         <v>27845</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>19593</v>
+        <v>19418</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>39324</v>
+        <v>38861</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2031651227618346</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1429580038486854</v>
+        <v>0.141678748041368</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2869204068340734</v>
+        <v>0.2835388800264679</v>
       </c>
     </row>
     <row r="32">
@@ -2738,19 +2738,19 @@
         <v>42137</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>31927</v>
+        <v>32103</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>50598</v>
+        <v>50964</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5119101660131744</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3878717181027739</v>
+        <v>0.3900099103919137</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6147004179398126</v>
+        <v>0.6191462239174049</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -2759,19 +2759,19 @@
         <v>18689</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11943</v>
+        <v>12158</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>25975</v>
+        <v>26626</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3414042564403525</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2181596192378691</v>
+        <v>0.2220863722467496</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.474481643990062</v>
+        <v>0.4863769271748682</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>55</v>
@@ -2780,19 +2780,19 @@
         <v>60827</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>48561</v>
+        <v>49641</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>72802</v>
+        <v>71806</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4438069027366653</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.354313762387114</v>
+        <v>0.3621920908125817</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5311794595551765</v>
+        <v>0.5239102153200302</v>
       </c>
     </row>
     <row r="33">
@@ -2931,19 +2931,19 @@
         <v>4850</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1835</v>
+        <v>1862</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>10344</v>
+        <v>10113</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04100993473231434</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01551551501729073</v>
+        <v>0.01574095515523093</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08746480447348505</v>
+        <v>0.08550676834739256</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5279</v>
+        <v>5495</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01892224090914137</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09547033868786814</v>
+        <v>0.099384183727312</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>6</v>
@@ -2973,19 +2973,19 @@
         <v>5896</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2028</v>
+        <v>1999</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>12157</v>
+        <v>12087</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0339732357029987</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01168663680709204</v>
+        <v>0.01152006620057991</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0700456413286666</v>
+        <v>0.06964148407869535</v>
       </c>
     </row>
     <row r="36">
@@ -3002,19 +3002,19 @@
         <v>18727</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12065</v>
+        <v>11836</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>27836</v>
+        <v>27258</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1583443558978247</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1020191925295489</v>
+        <v>0.1000821412633724</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2353673832809873</v>
+        <v>0.2304772466795815</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>10</v>
@@ -3023,19 +3023,19 @@
         <v>10185</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>5119</v>
+        <v>5286</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>16865</v>
+        <v>16859</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1842117557312754</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.09258018198744392</v>
+        <v>0.0956014144193275</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.305019964469918</v>
+        <v>0.3049033140426659</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>29</v>
@@ -3044,19 +3044,19 @@
         <v>28912</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>20089</v>
+        <v>19496</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>40329</v>
+        <v>40257</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1665851939299056</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.115745222069851</v>
+        <v>0.1123313215945002</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2323639677016472</v>
+        <v>0.2319528057305636</v>
       </c>
     </row>
     <row r="37">
@@ -3073,19 +3073,19 @@
         <v>29776</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>20732</v>
+        <v>19897</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>41927</v>
+        <v>41671</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2517703433572785</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1753013904556242</v>
+        <v>0.1682422194142842</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3545121329776365</v>
+        <v>0.3523467474026653</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>17</v>
@@ -3094,19 +3094,19 @@
         <v>17133</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>11057</v>
+        <v>10518</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>24417</v>
+        <v>24971</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3098647417474829</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1999678390124069</v>
+        <v>0.1902270329282076</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4416001379823952</v>
+        <v>0.4516257389218604</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>42</v>
@@ -3115,19 +3115,19 @@
         <v>46909</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>35313</v>
+        <v>36413</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>59758</v>
+        <v>61155</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2702780608235605</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2034677992260293</v>
+        <v>0.2098052523210144</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3443130258768069</v>
+        <v>0.3523612281290168</v>
       </c>
     </row>
     <row r="38">
@@ -3144,19 +3144,19 @@
         <v>64913</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>52873</v>
+        <v>53239</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>75880</v>
+        <v>76559</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5488753660125824</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4470696653806341</v>
+        <v>0.4501608012485673</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6416078545765662</v>
+        <v>0.6473464453609628</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>24</v>
@@ -3165,19 +3165,19 @@
         <v>26927</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>19188</v>
+        <v>19502</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>33843</v>
+        <v>35209</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4870012616121003</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3470301549298375</v>
+        <v>0.3527015209758052</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6120723227779251</v>
+        <v>0.6367909301470024</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>84</v>
@@ -3186,19 +3186,19 @@
         <v>91841</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>76806</v>
+        <v>77322</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>105243</v>
+        <v>104586</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5291635095435352</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4425378222102</v>
+        <v>0.4455108257924813</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6063866661289753</v>
+        <v>0.6025984969465625</v>
       </c>
     </row>
     <row r="39">
@@ -3290,19 +3290,19 @@
         <v>4798</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1705</v>
+        <v>1838</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>10569</v>
+        <v>10616</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01770927853024565</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.006293605115043396</v>
+        <v>0.006781989778826805</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03900807334149081</v>
+        <v>0.03917891204648866</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3</v>
@@ -3314,16 +3314,16 @@
         <v>939</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>8288</v>
+        <v>8324</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01682305316282552</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.005152926938770447</v>
+        <v>0.00515727533561991</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.04549834046945082</v>
+        <v>0.04569735899913635</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>8</v>
@@ -3332,19 +3332,19 @@
         <v>7863</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3876</v>
+        <v>3096</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>15347</v>
+        <v>14935</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01735299363264914</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.008554867005314354</v>
+        <v>0.00683248855312433</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03386896452604961</v>
+        <v>0.03296036133457576</v>
       </c>
     </row>
     <row r="41">
@@ -3361,19 +3361,19 @@
         <v>7232</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2816</v>
+        <v>3077</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>15214</v>
+        <v>15056</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02668907412699848</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0103943296467448</v>
+        <v>0.01135546125940267</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05614885935458533</v>
+        <v>0.05556511001086543</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>9</v>
@@ -3382,19 +3382,19 @@
         <v>9950</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>5088</v>
+        <v>4791</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>19271</v>
+        <v>18012</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05462190996275878</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02792962057090269</v>
+        <v>0.02629885850280029</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1057893780672621</v>
+        <v>0.09887554465800909</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>15</v>
@@ -3403,19 +3403,19 @@
         <v>17182</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>10214</v>
+        <v>10091</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>28167</v>
+        <v>28187</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03791877700076658</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02254088678683958</v>
+        <v>0.02226932136045884</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.06216339214973999</v>
+        <v>0.06220621843024979</v>
       </c>
     </row>
     <row r="42">
@@ -3432,19 +3432,19 @@
         <v>72739</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>58703</v>
+        <v>59148</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>90092</v>
+        <v>89246</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2684568371112048</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2166546034106575</v>
+        <v>0.2182962384024117</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3325003994614983</v>
+        <v>0.3293755581995939</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>43</v>
@@ -3453,19 +3453,19 @@
         <v>46135</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>34165</v>
+        <v>36060</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>58568</v>
+        <v>58542</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2532617335466184</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1875500415526454</v>
+        <v>0.1979499090684396</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3215102004497807</v>
+        <v>0.3213679420135376</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>111</v>
@@ -3474,19 +3474,19 @@
         <v>118875</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>99915</v>
+        <v>98471</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>140027</v>
+        <v>138514</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2623480231271986</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2205041299114145</v>
+        <v>0.2173174216090612</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3090292971263251</v>
+        <v>0.305689092927569</v>
       </c>
     </row>
     <row r="43">
@@ -3503,19 +3503,19 @@
         <v>60356</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>47048</v>
+        <v>46445</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>75412</v>
+        <v>74699</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2227550054349514</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1736369069455882</v>
+        <v>0.171414617964595</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2783193348902593</v>
+        <v>0.2756892670046739</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>47</v>
@@ -3524,19 +3524,19 @@
         <v>50792</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>38757</v>
+        <v>39251</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>63500</v>
+        <v>63914</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2788263120588888</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2127561069868534</v>
+        <v>0.215471518648386</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3485845397294068</v>
+        <v>0.3508602966867786</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>106</v>
@@ -3545,19 +3545,19 @@
         <v>111149</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>92741</v>
+        <v>93648</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>130257</v>
+        <v>131731</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2452970816077062</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2046709625773975</v>
+        <v>0.2066726666245831</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2874664717621062</v>
+        <v>0.2907209979532869</v>
       </c>
     </row>
     <row r="44">
@@ -3574,19 +3574,19 @@
         <v>125828</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>107777</v>
+        <v>109783</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>143647</v>
+        <v>143675</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.4643898047965996</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3977696238060054</v>
+        <v>0.405173765250338</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.5301523637698975</v>
+        <v>0.5302578825821438</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>69</v>
@@ -3595,19 +3595,19 @@
         <v>72222</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>59749</v>
+        <v>58681</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>86767</v>
+        <v>85638</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3964669912689086</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3279918390266625</v>
+        <v>0.3221287339978621</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4763084811773611</v>
+        <v>0.4701100785180069</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>183</v>
@@ -3616,19 +3616,19 @@
         <v>198051</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>174969</v>
+        <v>175912</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>219534</v>
+        <v>219272</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.4370831246316795</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3861421590100891</v>
+        <v>0.3882234212319162</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4844950292131922</v>
+        <v>0.48391581927116</v>
       </c>
     </row>
     <row r="45">
@@ -3720,19 +3720,19 @@
         <v>8531</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>3400</v>
+        <v>3994</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>15863</v>
+        <v>17018</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02368334144915323</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.009438698268279021</v>
+        <v>0.01108859608750215</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.0440365253027681</v>
+        <v>0.04724109810767346</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>6450</v>
+        <v>5942</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.004115815986920761</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02494207507266526</v>
+        <v>0.02297507499254149</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>9</v>
@@ -3762,19 +3762,19 @@
         <v>9596</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>4507</v>
+        <v>4459</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>17174</v>
+        <v>18530</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01550623959337256</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.00728321683901754</v>
+        <v>0.007205377872073621</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02775222200429306</v>
+        <v>0.0299431045695498</v>
       </c>
     </row>
     <row r="47">
@@ -3791,19 +3791,19 @@
         <v>13531</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>7289</v>
+        <v>7322</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>23329</v>
+        <v>23102</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.03756189914126883</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02023554516008653</v>
+        <v>0.02032698009716093</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.0647612059559895</v>
+        <v>0.06413200105604161</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>13</v>
@@ -3812,19 +3812,19 @@
         <v>15756</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>8347</v>
+        <v>8793</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>26863</v>
+        <v>26922</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.06092651204372022</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.0322776763537065</v>
+        <v>0.03400201684067146</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1038742254398055</v>
+        <v>0.1041027477371548</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>25</v>
@@ -3833,19 +3833,19 @@
         <v>29287</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>18659</v>
+        <v>18898</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>43077</v>
+        <v>42952</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.04732577142511941</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.03015164621587708</v>
+        <v>0.03053713769102981</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.06960981940399713</v>
+        <v>0.06940668611286761</v>
       </c>
     </row>
     <row r="48">
@@ -3862,19 +3862,19 @@
         <v>51908</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>38141</v>
+        <v>39426</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>67156</v>
+        <v>67136</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1440974081049426</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1058787452663426</v>
+        <v>0.1094474875888508</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1864255072090932</v>
+        <v>0.1863677363064174</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>44</v>
@@ -3883,19 +3883,19 @@
         <v>50614</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>37868</v>
+        <v>38569</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>65761</v>
+        <v>64763</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1957176334953253</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1464281937304471</v>
+        <v>0.149141262684291</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2542902699695195</v>
+        <v>0.2504306804605685</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>91</v>
@@ -3904,19 +3904,19 @@
         <v>102523</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>84438</v>
+        <v>83811</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>122564</v>
+        <v>125316</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1656690596482214</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1364457885460092</v>
+        <v>0.1354325416919984</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1980546221914984</v>
+        <v>0.2025015222691635</v>
       </c>
     </row>
     <row r="49">
@@ -3933,19 +3933,19 @@
         <v>132560</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>113465</v>
+        <v>115176</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>155071</v>
+        <v>151184</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3679859413141235</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.314978034863981</v>
+        <v>0.3197275070968518</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4304757914074203</v>
+        <v>0.4196848936146471</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>81</v>
@@ -3954,19 +3954,19 @@
         <v>85456</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>70701</v>
+        <v>70231</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>100357</v>
+        <v>100988</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3304454569298678</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.273390933879624</v>
+        <v>0.2715725456508919</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3880647906649146</v>
+        <v>0.3905047410117135</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>205</v>
@@ -3975,19 +3975,19 @@
         <v>218017</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>195088</v>
+        <v>192002</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>242951</v>
+        <v>241840</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3522980933479668</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3152472370357756</v>
+        <v>0.3102604863433626</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3925910716793437</v>
+        <v>0.3907958547275841</v>
       </c>
     </row>
     <row r="50">
@@ -4004,19 +4004,19 @@
         <v>153701</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>132918</v>
+        <v>134608</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>172230</v>
+        <v>172833</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.4266714099905118</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.368978740992944</v>
+        <v>0.3736707982495376</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4781083992557234</v>
+        <v>0.4797820152130161</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>95</v>
@@ -4025,19 +4025,19 @@
         <v>105718</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>89907</v>
+        <v>89928</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>122415</v>
+        <v>122887</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.408794581544166</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.3476573795198072</v>
+        <v>0.3477387528164456</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.4733605546904855</v>
+        <v>0.4751858482503516</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>239</v>
@@ -4046,19 +4046,19 @@
         <v>259419</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>233059</v>
+        <v>233953</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>284704</v>
+        <v>285736</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.4192008359853198</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.376606217636148</v>
+        <v>0.3780499920527716</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.4600600736423109</v>
+        <v>0.4617269603556862</v>
       </c>
     </row>
     <row r="51">
@@ -4150,19 +4150,19 @@
         <v>39203</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>28850</v>
+        <v>28427</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>54407</v>
+        <v>53943</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.02767165729702493</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.02036346927999544</v>
+        <v>0.02006494212737489</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.03840308855532975</v>
+        <v>0.03807542345946634</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>28</v>
@@ -4171,19 +4171,19 @@
         <v>28497</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>19151</v>
+        <v>19485</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>39871</v>
+        <v>40269</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.03020349675017532</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.0202970015322309</v>
+        <v>0.02065157956526531</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.04225756524253174</v>
+        <v>0.04267995493216708</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>65</v>
@@ -4192,19 +4192,19 @@
         <v>67701</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>51869</v>
+        <v>52900</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>85335</v>
+        <v>85911</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.02868376576212881</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.02197621902133902</v>
+        <v>0.0224130580573728</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.03615526080065661</v>
+        <v>0.03639905512667563</v>
       </c>
     </row>
     <row r="53">
@@ -4221,19 +4221,19 @@
         <v>59285</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>46103</v>
+        <v>44864</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>76193</v>
+        <v>78280</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.04184588300401335</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.03254190968874103</v>
+        <v>0.03166719563282338</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.05378083131853543</v>
+        <v>0.05525389568840638</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>37</v>
@@ -4242,19 +4242,19 @@
         <v>42666</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>30282</v>
+        <v>30360</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>58380</v>
+        <v>57085</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.04522058647839138</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.03209482193666994</v>
+        <v>0.03217768810501714</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.06187500236458481</v>
+        <v>0.06050262806215188</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>92</v>
@@ -4263,19 +4263,19 @@
         <v>101951</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>84766</v>
+        <v>82120</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>125726</v>
+        <v>123891</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.04319492824042573</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.03591412474641184</v>
+        <v>0.03479305692393864</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.05326788134479345</v>
+        <v>0.05249052436762647</v>
       </c>
     </row>
     <row r="54">
@@ -4292,19 +4292,19 @@
         <v>255855</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>226415</v>
+        <v>226093</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>286206</v>
+        <v>287095</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1805949396996446</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1598142945134</v>
+        <v>0.1595874978997208</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2020175653714767</v>
+        <v>0.2026454154032067</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>186</v>
@@ -4313,19 +4313,19 @@
         <v>203313</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>179331</v>
+        <v>179763</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>229653</v>
+        <v>230663</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.2154845715338957</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1900662286330884</v>
+        <v>0.1905242480890923</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2434015192815793</v>
+        <v>0.2444722040954709</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>429</v>
@@ -4334,19 +4334,19 @@
         <v>459168</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>418732</v>
+        <v>417502</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>500825</v>
+        <v>496345</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.19454214779764</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1774098852315882</v>
+        <v>0.1768889730857374</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2121916032969556</v>
+        <v>0.2102933660538026</v>
       </c>
     </row>
     <row r="55">
@@ -4363,19 +4363,19 @@
         <v>351462</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>319208</v>
+        <v>318722</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>388801</v>
+        <v>383239</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.248078931371991</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2253126051628957</v>
+        <v>0.2249689984779665</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2744343992573964</v>
+        <v>0.2705085926181813</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>214</v>
@@ -4384,19 +4384,19 @@
         <v>223944</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>199560</v>
+        <v>199506</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>252119</v>
+        <v>254353</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2373500025417078</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2115070967104602</v>
+        <v>0.2114495114789998</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2672122753055285</v>
+        <v>0.2695798261889052</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>547</v>
@@ -4405,19 +4405,19 @@
         <v>575406</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>534753</v>
+        <v>533225</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>620965</v>
+        <v>618464</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2437900181562992</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.226566367585119</v>
+        <v>0.2259189078674985</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2630926104695519</v>
+        <v>0.2620332799428965</v>
       </c>
     </row>
     <row r="56">
@@ -4434,19 +4434,19 @@
         <v>710930</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>672367</v>
+        <v>673960</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>751661</v>
+        <v>748666</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.5018085886273261</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.4745888966603273</v>
+        <v>0.4757132411060436</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.5305583716135522</v>
+        <v>0.5284441048662489</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>406</v>
@@ -4455,19 +4455,19 @@
         <v>445096</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>414706</v>
+        <v>413463</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>478670</v>
+        <v>477251</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.4717413426958298</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.4395324930355071</v>
+        <v>0.4382149153476854</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.5073253650584471</v>
+        <v>0.505821659741241</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1068</v>
@@ -4476,19 +4476,19 @@
         <v>1156025</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1102301</v>
+        <v>1105909</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1207494</v>
+        <v>1205124</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.4897891400435063</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.4670271461821746</v>
+        <v>0.4685555267434737</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.511595724813645</v>
+        <v>0.5105913484869687</v>
       </c>
     </row>
     <row r="57">
@@ -4824,19 +4824,19 @@
         <v>7406</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3278</v>
+        <v>3397</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15010</v>
+        <v>15665</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0556635405951307</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02463386044111752</v>
+        <v>0.02553438163623862</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1128103467076772</v>
+        <v>0.1177384361131951</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4845,19 +4845,19 @@
         <v>4473</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1092</v>
+        <v>1106</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12244</v>
+        <v>12473</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04469647267558517</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01091560063671522</v>
+        <v>0.01104899154967843</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1223506343094634</v>
+        <v>0.1246418917166088</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -4866,19 +4866,19 @@
         <v>11879</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5427</v>
+        <v>5791</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21487</v>
+        <v>23231</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05095579821505528</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02327995600951544</v>
+        <v>0.02483950246992016</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09217200402856808</v>
+        <v>0.09965060426764313</v>
       </c>
     </row>
     <row r="5">
@@ -4895,19 +4895,19 @@
         <v>14488</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7847</v>
+        <v>7662</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23594</v>
+        <v>23230</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1088930112970245</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05897640453241801</v>
+        <v>0.05758632454523866</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1773315421119177</v>
+        <v>0.1745971545608733</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -4916,19 +4916,19 @@
         <v>7014</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2950</v>
+        <v>3014</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13283</v>
+        <v>14037</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0700862095782836</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02947990833465467</v>
+        <v>0.03012309392890861</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1327327879307379</v>
+        <v>0.1402674623013809</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -4937,19 +4937,19 @@
         <v>21502</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13311</v>
+        <v>12928</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33468</v>
+        <v>31606</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09223473705027661</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0570998884010328</v>
+        <v>0.05545455774972483</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1435648567767112</v>
+        <v>0.1355785590751929</v>
       </c>
     </row>
     <row r="6">
@@ -4966,19 +4966,19 @@
         <v>33431</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24610</v>
+        <v>23621</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45363</v>
+        <v>44743</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2512608867770498</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.18496552791467</v>
+        <v>0.1775343888398002</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3409451012399372</v>
+        <v>0.3362854922309728</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -4987,19 +4987,19 @@
         <v>27677</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20179</v>
+        <v>18840</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37744</v>
+        <v>37399</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2765797030645099</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2016444664322712</v>
+        <v>0.1882692730727835</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.377173582310908</v>
+        <v>0.3737281768489602</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>56</v>
@@ -5008,19 +5008,19 @@
         <v>61108</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>47938</v>
+        <v>48114</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>76195</v>
+        <v>75990</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2621292852700865</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2056363455801078</v>
+        <v>0.2063930184713435</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3268487092948786</v>
+        <v>0.3259675555759889</v>
       </c>
     </row>
     <row r="7">
@@ -5037,19 +5037,19 @@
         <v>24290</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16497</v>
+        <v>15411</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34917</v>
+        <v>34631</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1825617528320246</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1239872875387722</v>
+        <v>0.1158272804811866</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.26243026181753</v>
+        <v>0.2602839422438</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -5058,19 +5058,19 @@
         <v>18128</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11085</v>
+        <v>11086</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27521</v>
+        <v>26594</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1811542145967041</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1107699021252781</v>
+        <v>0.1107777253731683</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.275020574033553</v>
+        <v>0.2657499137960858</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -5079,19 +5079,19 @@
         <v>42418</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31277</v>
+        <v>31179</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54771</v>
+        <v>55418</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1819575505556636</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1341653049870584</v>
+        <v>0.133748637719726</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2349462866049894</v>
+        <v>0.2377232744741463</v>
       </c>
     </row>
     <row r="8">
@@ -5108,19 +5108,19 @@
         <v>53436</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>41392</v>
+        <v>41514</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>66200</v>
+        <v>66011</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4016208084987704</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3110961586600214</v>
+        <v>0.3120160989517938</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4975564590817298</v>
+        <v>0.4961338220903884</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>42</v>
@@ -5129,19 +5129,19 @@
         <v>42778</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32981</v>
+        <v>32639</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>53139</v>
+        <v>53210</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4274834000849173</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.329581266044467</v>
+        <v>0.3261601603069673</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5310139009078473</v>
+        <v>0.5317233136014472</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>90</v>
@@ -5150,19 +5150,19 @@
         <v>96214</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>79917</v>
+        <v>80825</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>111479</v>
+        <v>112412</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.412722628908918</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3428132120147225</v>
+        <v>0.3467100650759626</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4782029671231488</v>
+        <v>0.4822082407063838</v>
       </c>
     </row>
     <row r="9">
@@ -5254,19 +5254,19 @@
         <v>4185</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1023</v>
+        <v>1033</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10459</v>
+        <v>9552</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02457569575081254</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006006548021079675</v>
+        <v>0.006068541066383819</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06141509804010057</v>
+        <v>0.05608813981723871</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -5275,19 +5275,19 @@
         <v>7125</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3020</v>
+        <v>3042</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13452</v>
+        <v>14109</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06267179777870258</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02656834578940749</v>
+        <v>0.02675529931374723</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1183364376514574</v>
+        <v>0.1241082269330831</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -5296,19 +5296,19 @@
         <v>11310</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6083</v>
+        <v>5977</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20040</v>
+        <v>19200</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03982612994910557</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02142234527833334</v>
+        <v>0.02104729305751507</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07057060285060031</v>
+        <v>0.06760984120799068</v>
       </c>
     </row>
     <row r="11">
@@ -5325,19 +5325,19 @@
         <v>7372</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3127</v>
+        <v>3107</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14915</v>
+        <v>13948</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04329201031454121</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01836396542145943</v>
+        <v>0.01824579071168529</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08758479920744877</v>
+        <v>0.0819019652175432</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -5346,19 +5346,19 @@
         <v>3079</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8398</v>
+        <v>8302</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02708061677411139</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.008597032552746242</v>
+        <v>0.008574214584521674</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07386988133696949</v>
+        <v>0.07303058267019685</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -5367,19 +5367,19 @@
         <v>10451</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5314</v>
+        <v>5246</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18356</v>
+        <v>18791</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03680234923924378</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01871168559897123</v>
+        <v>0.01847457042104827</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06463774903257906</v>
+        <v>0.0661715297463429</v>
       </c>
     </row>
     <row r="12">
@@ -5396,19 +5396,19 @@
         <v>35127</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23758</v>
+        <v>24870</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45755</v>
+        <v>47011</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2062664420745022</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1395074627475112</v>
+        <v>0.1460387791436471</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2686794484386379</v>
+        <v>0.2760516002641358</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -5417,19 +5417,19 @@
         <v>19901</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13490</v>
+        <v>12826</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29023</v>
+        <v>28022</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1750588937716513</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1186681559619218</v>
+        <v>0.1128264813374172</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2553050176946114</v>
+        <v>0.2465009515065907</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>53</v>
@@ -5438,19 +5438,19 @@
         <v>55027</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>42113</v>
+        <v>43618</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>69674</v>
+        <v>69540</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1937735980156992</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1482989018956977</v>
+        <v>0.1535983954232457</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2453497205898501</v>
+        <v>0.2448777792995073</v>
       </c>
     </row>
     <row r="13">
@@ -5467,19 +5467,19 @@
         <v>40077</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29478</v>
+        <v>30040</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52397</v>
+        <v>53295</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2353373249550202</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1730980533052428</v>
+        <v>0.1763993543628145</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3076776694077198</v>
+        <v>0.3129561346554018</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -5488,19 +5488,19 @@
         <v>18346</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10788</v>
+        <v>11576</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26669</v>
+        <v>28252</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1613840548368393</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09489652811416019</v>
+        <v>0.101828045410589</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2345933883478854</v>
+        <v>0.2485227849269942</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -5509,19 +5509,19 @@
         <v>58423</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45362</v>
+        <v>45621</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>74300</v>
+        <v>72972</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2057327349930279</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1597374092741597</v>
+        <v>0.1606508540754506</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2616422039136762</v>
+        <v>0.256964289107402</v>
       </c>
     </row>
     <row r="14">
@@ -5538,19 +5538,19 @@
         <v>83536</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>70790</v>
+        <v>69896</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>98480</v>
+        <v>97564</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4905285269051238</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4156851340624351</v>
+        <v>0.4104383957208491</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5782854030056863</v>
+        <v>0.5729064858377024</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>62</v>
@@ -5559,19 +5559,19 @@
         <v>65230</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>54166</v>
+        <v>54351</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>76540</v>
+        <v>75345</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5738046368386955</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4764816760265025</v>
+        <v>0.4781053290260102</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6732970634961447</v>
+        <v>0.6627843647735631</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>137</v>
@@ -5580,19 +5580,19 @@
         <v>148766</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>131832</v>
+        <v>131534</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>165911</v>
+        <v>165696</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5238651878029236</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4642363885432821</v>
+        <v>0.4631868636284595</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5842415616646698</v>
+        <v>0.5834831780790115</v>
       </c>
     </row>
     <row r="15">
@@ -5684,19 +5684,19 @@
         <v>3377</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>868</v>
+        <v>833</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10103</v>
+        <v>9753</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0268898275960028</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006908580897178612</v>
+        <v>0.006634667585290086</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08044221041159175</v>
+        <v>0.07765594770664434</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5895</v>
+        <v>5781</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02251191153012572</v>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06990090009832294</v>
+        <v>0.0685542353462895</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -5726,19 +5726,19 @@
         <v>5276</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1829</v>
+        <v>1800</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12419</v>
+        <v>11802</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02513106089769077</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0087126159382051</v>
+        <v>0.00857617066741685</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05915908883796316</v>
+        <v>0.05622169541058607</v>
       </c>
     </row>
     <row r="17">
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4324</v>
+        <v>4398</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006888566176405051</v>
@@ -5767,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03443045786131496</v>
+        <v>0.03501672835201401</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -5779,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3906</v>
+        <v>4517</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01001806330024781</v>
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0463170800330821</v>
+        <v>0.05356696166634099</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6057</v>
+        <v>5950</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.008145797982829656</v>
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02885216542072118</v>
+        <v>0.02834586041082954</v>
       </c>
     </row>
     <row r="18">
@@ -5826,19 +5826,19 @@
         <v>24945</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18145</v>
+        <v>16999</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34925</v>
+        <v>35051</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.198627132681243</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1444777673411053</v>
+        <v>0.1353517099590897</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2780857106551307</v>
+        <v>0.2790900296427759</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>20</v>
@@ -5847,19 +5847,19 @@
         <v>19354</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12391</v>
+        <v>12324</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>27327</v>
+        <v>26871</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.229499782191833</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1469333937995571</v>
+        <v>0.146139787916689</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.324042743552988</v>
+        <v>0.3186258852852943</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>47</v>
@@ -5868,19 +5868,19 @@
         <v>44300</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>33985</v>
+        <v>34435</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>56489</v>
+        <v>56588</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2110297888836083</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1618957341902753</v>
+        <v>0.1640380639584947</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2690959429112113</v>
+        <v>0.2695656993134198</v>
       </c>
     </row>
     <row r="19">
@@ -5897,19 +5897,19 @@
         <v>51825</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40123</v>
+        <v>41918</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>62860</v>
+        <v>62540</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4126568155684353</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3194790259891707</v>
+        <v>0.3337745036487517</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5005243198162829</v>
+        <v>0.4979766683204193</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -5918,19 +5918,19 @@
         <v>28341</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19614</v>
+        <v>20669</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37570</v>
+        <v>37748</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3360624547801684</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2325801697120571</v>
+        <v>0.2450878017827025</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4454913267354585</v>
+        <v>0.4476047222715756</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>82</v>
@@ -5939,19 +5939,19 @@
         <v>80166</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>67111</v>
+        <v>67419</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>95614</v>
+        <v>94357</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3818860997744786</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3196936556483984</v>
+        <v>0.321164513663155</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4554735051760546</v>
+        <v>0.4494851616919883</v>
       </c>
     </row>
     <row r="20">
@@ -5968,19 +5968,19 @@
         <v>44576</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>35054</v>
+        <v>34572</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>56067</v>
+        <v>54554</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3549376579779138</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2791132903701663</v>
+        <v>0.2752764388549281</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4464300144621637</v>
+        <v>0.4343849592934978</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -5989,19 +5989,19 @@
         <v>33894</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25633</v>
+        <v>25081</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43581</v>
+        <v>43716</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4019077881976251</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3039482701197619</v>
+        <v>0.2974006408585034</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5167755550950055</v>
+        <v>0.518368064513236</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>81</v>
@@ -6010,19 +6010,19 @@
         <v>78470</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>64818</v>
+        <v>64094</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>91822</v>
+        <v>92062</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3738072524613927</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3087723160607544</v>
+        <v>0.3053222666661681</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4374089702683512</v>
+        <v>0.4385526988762999</v>
       </c>
     </row>
     <row r="21">
@@ -6114,19 +6114,19 @@
         <v>9037</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4203</v>
+        <v>4103</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17216</v>
+        <v>18675</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0805543862751268</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03746799947309108</v>
+        <v>0.03657915382798597</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1534687779480383</v>
+        <v>0.166476846600831</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -6135,19 +6135,19 @@
         <v>8177</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3993</v>
+        <v>3846</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15019</v>
+        <v>15338</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09989374337265215</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04878235327031256</v>
+        <v>0.04698543361528429</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1834761395647335</v>
+        <v>0.1873663090837522</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -6156,19 +6156,19 @@
         <v>17214</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10047</v>
+        <v>9947</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26982</v>
+        <v>28028</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08871303970832867</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05177585677728851</v>
+        <v>0.05126508761778924</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1390550760342183</v>
+        <v>0.1444428070154373</v>
       </c>
     </row>
     <row r="23">
@@ -6185,19 +6185,19 @@
         <v>2957</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8974</v>
+        <v>7991</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02636195611399467</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.008351105847881665</v>
+        <v>0.008324937768433472</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07999884778522529</v>
+        <v>0.07123543174467242</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -6209,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7280</v>
+        <v>6558</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02610974293475513</v>
@@ -6218,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08893415257523221</v>
+        <v>0.08011413203339464</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5</v>
@@ -6227,19 +6227,19 @@
         <v>5095</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1884</v>
+        <v>1110</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11184</v>
+        <v>10649</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0262555554766661</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.009708649690748592</v>
+        <v>0.005721186327835628</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05763626277561717</v>
+        <v>0.05488272048247527</v>
       </c>
     </row>
     <row r="24">
@@ -6256,19 +6256,19 @@
         <v>14037</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8073</v>
+        <v>8253</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22970</v>
+        <v>22733</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1251276497818268</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0719635103920464</v>
+        <v>0.07357028818200079</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2047605853290288</v>
+        <v>0.2026431659345918</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -6277,19 +6277,19 @@
         <v>14043</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7861</v>
+        <v>7802</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>22592</v>
+        <v>21917</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1715542038983948</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09602545055674534</v>
+        <v>0.09530913403817637</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2759897354268345</v>
+        <v>0.2677451918782108</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>26</v>
@@ -6298,19 +6298,19 @@
         <v>28080</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>18802</v>
+        <v>19455</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>40146</v>
+        <v>40239</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1447135213919714</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0968956815345661</v>
+        <v>0.1002620525257686</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2068947673710587</v>
+        <v>0.2073766240666132</v>
       </c>
     </row>
     <row r="25">
@@ -6327,19 +6327,19 @@
         <v>14043</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7645</v>
+        <v>7125</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22453</v>
+        <v>21914</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1251840895766738</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06814685544952211</v>
+        <v>0.06351610754586656</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2001503958952362</v>
+        <v>0.1953439470963423</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -6348,19 +6348,19 @@
         <v>9838</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4825</v>
+        <v>4959</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17728</v>
+        <v>17959</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1201818163223886</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05894085970525207</v>
+        <v>0.060573986004844</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2165690068131675</v>
+        <v>0.2193866504812139</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>21</v>
@@ -6369,19 +6369,19 @@
         <v>23881</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15578</v>
+        <v>14598</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>35759</v>
+        <v>35024</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1230737912014962</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08028271372873991</v>
+        <v>0.07523403871896844</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1842862628416542</v>
+        <v>0.1805010328848175</v>
       </c>
     </row>
     <row r="26">
@@ -6398,19 +6398,19 @@
         <v>72106</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>60774</v>
+        <v>60603</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>82095</v>
+        <v>82196</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6427719182523779</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5417554199407411</v>
+        <v>0.5402322716253316</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7318169935872978</v>
+        <v>0.7327184384150782</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>47</v>
@@ -6419,19 +6419,19 @@
         <v>47663</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>37851</v>
+        <v>38896</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>56221</v>
+        <v>57623</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5822604934718093</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4623894424356293</v>
+        <v>0.4751636312613884</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6868045412539321</v>
+        <v>0.7039300966838168</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>116</v>
@@ -6440,19 +6440,19 @@
         <v>119769</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>106367</v>
+        <v>105111</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>133952</v>
+        <v>133657</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6172440922215376</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.548175785927605</v>
+        <v>0.5417027575670825</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.690334479835833</v>
+        <v>0.6888138627974618</v>
       </c>
     </row>
     <row r="27">
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4865</v>
+        <v>5342</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01182432312172545</v>
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06011814539333802</v>
+        <v>0.06601079749340032</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -6581,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4833</v>
+        <v>5302</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.007018359254134843</v>
@@ -6590,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03544383155891532</v>
+        <v>0.03888420975577151</v>
       </c>
     </row>
     <row r="29">
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5826</v>
+        <v>5922</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01260499690590307</v>
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07199201961792989</v>
+        <v>0.0731752211044545</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5574</v>
+        <v>5409</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.007481730308971509</v>
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04088062682033643</v>
+        <v>0.03967227405111777</v>
       </c>
     </row>
     <row r="30">
@@ -6670,19 +6670,19 @@
         <v>11685</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6125</v>
+        <v>6281</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19465</v>
+        <v>19004</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1443846600933342</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07568187508834864</v>
+        <v>0.07761509979983</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2405174795114317</v>
+        <v>0.2348196720147249</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>11</v>
@@ -6691,19 +6691,19 @@
         <v>10984</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6183</v>
+        <v>6116</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18786</v>
+        <v>17766</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.198205251594803</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1115619321635363</v>
+        <v>0.1103616104403856</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3389896821688337</v>
+        <v>0.320579291553567</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>22</v>
@@ -6712,19 +6712,19 @@
         <v>22669</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>14937</v>
+        <v>15130</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>32384</v>
+        <v>31822</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1662598926479287</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1095514334056149</v>
+        <v>0.1109664869783659</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.237507634751239</v>
+        <v>0.2333900130883495</v>
       </c>
     </row>
     <row r="31">
@@ -6741,19 +6741,19 @@
         <v>36644</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>28406</v>
+        <v>27790</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>45443</v>
+        <v>45816</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4527849545137042</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.350989917678966</v>
+        <v>0.3433815880382741</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5615130305303135</v>
+        <v>0.5661160301259838</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>31</v>
@@ -6762,19 +6762,19 @@
         <v>28715</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>21594</v>
+        <v>21770</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>35863</v>
+        <v>35348</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5181526755835155</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.389662019489328</v>
+        <v>0.3928390747084942</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6471325090768587</v>
+        <v>0.6378389342818095</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>68</v>
@@ -6783,19 +6783,19 @@
         <v>65359</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>53986</v>
+        <v>54468</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>76812</v>
+        <v>78078</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4793534863724996</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3959462591442839</v>
+        <v>0.3994811170322059</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5633491639334414</v>
+        <v>0.5726366587112787</v>
       </c>
     </row>
     <row r="32">
@@ -6812,19 +6812,19 @@
         <v>30624</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>22689</v>
+        <v>22127</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>39381</v>
+        <v>39962</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3784010653653331</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2803541474773109</v>
+        <v>0.2734045940620595</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4866117772402872</v>
+        <v>0.4937791258445087</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>17</v>
@@ -6833,19 +6833,19 @@
         <v>15719</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>9997</v>
+        <v>9915</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>22547</v>
+        <v>23287</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2836420728216815</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1803966420141192</v>
+        <v>0.1789083071997276</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4068581356432782</v>
+        <v>0.4202104293274396</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>46</v>
@@ -6854,19 +6854,19 @@
         <v>46343</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>36065</v>
+        <v>35888</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>58800</v>
+        <v>58455</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3398865314164653</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2645058460550317</v>
+        <v>0.2632106586920573</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4312511128350905</v>
+        <v>0.4287166458186571</v>
       </c>
     </row>
     <row r="33">
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>3558</v>
+        <v>4423</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01154934677456052</v>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04708849973103401</v>
+        <v>0.05852941754040675</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1</v>
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>4397</v>
+        <v>4333</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.004767368423114426</v>
@@ -7004,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02401674255107696</v>
+        <v>0.02366590751724247</v>
       </c>
     </row>
     <row r="35">
@@ -7021,19 +7021,19 @@
         <v>11006</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5573</v>
+        <v>5928</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>18405</v>
+        <v>19449</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1023838671675932</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05184284692092942</v>
+        <v>0.05514191610152021</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1712025266985251</v>
+        <v>0.1809200286481273</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>11</v>
@@ -7042,19 +7042,19 @@
         <v>10953</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5797</v>
+        <v>6086</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>18194</v>
+        <v>18338</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1449426883556054</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07670986225248957</v>
+        <v>0.08053513138082195</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.240761842743864</v>
+        <v>0.2426703516914954</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>21</v>
@@ -7063,19 +7063,19 @@
         <v>21960</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>13849</v>
+        <v>14493</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>32171</v>
+        <v>33066</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1199514044679374</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07564674097776895</v>
+        <v>0.07916837195828252</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1757313507628128</v>
+        <v>0.1806167691914821</v>
       </c>
     </row>
     <row r="36">
@@ -7092,19 +7092,19 @@
         <v>23765</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>16296</v>
+        <v>16194</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>34667</v>
+        <v>33583</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2210685567554931</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.151592264465995</v>
+        <v>0.1506360823690392</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.322478993540802</v>
+        <v>0.3123922803223157</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>15</v>
@@ -7113,19 +7113,19 @@
         <v>14191</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>8253</v>
+        <v>8611</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>21595</v>
+        <v>21051</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1877940452194862</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.109209335350583</v>
+        <v>0.1139449070171249</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2857683155916343</v>
+        <v>0.2785724531324619</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>38</v>
@@ -7134,19 +7134,19 @@
         <v>37957</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>28136</v>
+        <v>27968</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>50486</v>
+        <v>49687</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2073334201553236</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1536866891790087</v>
+        <v>0.1527733060873379</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2757732311198943</v>
+        <v>0.2714063803138291</v>
       </c>
     </row>
     <row r="37">
@@ -7163,19 +7163,19 @@
         <v>39415</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>29567</v>
+        <v>29294</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>49175</v>
+        <v>49280</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3666420730711649</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2750361358546517</v>
+        <v>0.2724978303668461</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4574364055472019</v>
+        <v>0.4584128077811741</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>30</v>
@@ -7184,19 +7184,19 @@
         <v>29329</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>21428</v>
+        <v>21624</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>37326</v>
+        <v>38185</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3881145837770529</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2835627719370675</v>
+        <v>0.286156935076122</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4939329169415677</v>
+        <v>0.5053031557830754</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>68</v>
@@ -7205,19 +7205,19 @@
         <v>68744</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>55896</v>
+        <v>57004</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>81974</v>
+        <v>81965</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3755055500714156</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3053250469661016</v>
+        <v>0.3113772105142651</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4477717317433562</v>
+        <v>0.4477223887913109</v>
       </c>
     </row>
     <row r="38">
@@ -7234,19 +7234,19 @@
         <v>33315</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>24332</v>
+        <v>24344</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>43172</v>
+        <v>43051</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3099055030057488</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2263379402858922</v>
+        <v>0.226447748442298</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4015880650378125</v>
+        <v>0.4004634142585889</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>20</v>
@@ -7255,19 +7255,19 @@
         <v>20222</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>13230</v>
+        <v>13743</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>28124</v>
+        <v>28479</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2675993358732951</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1750763317599988</v>
+        <v>0.181859647537685</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3721651886961046</v>
+        <v>0.3768646240492781</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>52</v>
@@ -7276,19 +7276,19 @@
         <v>53538</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>41833</v>
+        <v>42063</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>65894</v>
+        <v>66814</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.292442256882209</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2285069055160599</v>
+        <v>0.2297636170516186</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.359935808868477</v>
+        <v>0.3649615046376811</v>
       </c>
     </row>
     <row r="39">
@@ -7380,19 +7380,19 @@
         <v>21038</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>12493</v>
+        <v>13273</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>32077</v>
+        <v>32098</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0586217999181797</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03481159676971304</v>
+        <v>0.03698421495116724</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.08938180687814619</v>
+        <v>0.08944129236614957</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>23</v>
@@ -7401,19 +7401,19 @@
         <v>24292</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>16120</v>
+        <v>16125</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>35458</v>
+        <v>35620</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.08558149812747268</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.05679305519530953</v>
+        <v>0.05680838095876036</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1249207135410155</v>
+        <v>0.1254903593319919</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>41</v>
@@ -7422,19 +7422,19 @@
         <v>45330</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>33302</v>
+        <v>33423</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>59324</v>
+        <v>59799</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.07052805936684013</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.05181469776494302</v>
+        <v>0.05200205106445889</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.09230067190087689</v>
+        <v>0.09304001500120496</v>
       </c>
     </row>
     <row r="41">
@@ -7451,19 +7451,19 @@
         <v>40982</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>30005</v>
+        <v>29446</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>56109</v>
+        <v>54064</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1141958344465208</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.08360927311347296</v>
+        <v>0.08205135491188394</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1563480713262799</v>
+        <v>0.1506484450490805</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>31</v>
@@ -7472,19 +7472,19 @@
         <v>32291</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>21610</v>
+        <v>22757</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>43686</v>
+        <v>45168</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.11376121996903</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.07613358665501435</v>
+        <v>0.08017492803713305</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.153906487510056</v>
+        <v>0.1591277402594706</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>68</v>
@@ -7493,19 +7493,19 @@
         <v>73273</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>58235</v>
+        <v>57692</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>91531</v>
+        <v>89046</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1140038948821764</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.09060692493293089</v>
+        <v>0.0897626600341295</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.142412340439687</v>
+        <v>0.1385456815095748</v>
       </c>
     </row>
     <row r="42">
@@ -7522,19 +7522,19 @@
         <v>124646</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>106201</v>
+        <v>104431</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>144071</v>
+        <v>143896</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.347324521673155</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2959280310016016</v>
+        <v>0.290995498757214</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4014521704888132</v>
+        <v>0.4009637280191755</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>91</v>
@@ -7543,19 +7543,19 @@
         <v>95630</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>80486</v>
+        <v>80944</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>112384</v>
+        <v>113448</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3369094355092408</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2835540829830258</v>
+        <v>0.2851703125630478</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3959343286540101</v>
+        <v>0.3996800995214517</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>195</v>
@@ -7564,19 +7564,19 @@
         <v>220276</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>197989</v>
+        <v>197987</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>246273</v>
+        <v>247004</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3427248886548235</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3080485674339176</v>
+        <v>0.3080456844210275</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3831724942175364</v>
+        <v>0.384309568571953</v>
       </c>
     </row>
     <row r="43">
@@ -7593,19 +7593,19 @@
         <v>68666</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>54705</v>
+        <v>53135</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>84164</v>
+        <v>85562</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1913367069195625</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1524352100491389</v>
+        <v>0.148060635292637</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2345218137678599</v>
+        <v>0.2384168568683052</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>59</v>
@@ -7614,19 +7614,19 @@
         <v>59731</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>47646</v>
+        <v>46571</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>75009</v>
+        <v>73637</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2104330613345181</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1678601973937097</v>
+        <v>0.1640714663898535</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2642581509921575</v>
+        <v>0.2594273284892005</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>121</v>
@@ -7635,19 +7635,19 @@
         <v>128397</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>107572</v>
+        <v>107587</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>149283</v>
+        <v>150872</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1997702638690116</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1673691868523922</v>
+        <v>0.1673936474804457</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2322670156553383</v>
+        <v>0.2347387249951667</v>
       </c>
     </row>
     <row r="44">
@@ -7664,19 +7664,19 @@
         <v>103543</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>85738</v>
+        <v>86922</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>121659</v>
+        <v>122629</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.288521137042582</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2389074912790746</v>
+        <v>0.2422074500134237</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3390014572446252</v>
+        <v>0.341705271038123</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>69</v>
@@ -7685,19 +7685,19 @@
         <v>71902</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>56789</v>
+        <v>57396</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>85968</v>
+        <v>87559</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2533147850597384</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2000705257247032</v>
+        <v>0.202209927701293</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3028671823475214</v>
+        <v>0.3084722168088189</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>160</v>
@@ -7706,19 +7706,19 @@
         <v>175445</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>152049</v>
+        <v>150100</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>201587</v>
+        <v>198262</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2729728932271484</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2365711363417915</v>
+        <v>0.2335389202948131</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3136457375780178</v>
+        <v>0.3084723717802966</v>
       </c>
     </row>
     <row r="45">
@@ -7810,19 +7810,19 @@
         <v>3355</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>9801</v>
+        <v>10104</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01023280716725208</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.002799371968960261</v>
+        <v>0.002807693540015324</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02988837209383738</v>
+        <v>0.03081175222752771</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>0</v>
@@ -7844,19 +7844,19 @@
         <v>3355</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>8974</v>
+        <v>9177</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.005937626197730461</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.001632095558254121</v>
+        <v>0.001627084276945749</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.01587990876928611</v>
+        <v>0.01623938085165716</v>
       </c>
     </row>
     <row r="47">
@@ -7873,19 +7873,19 @@
         <v>4003</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1015</v>
+        <v>1029</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>9906</v>
+        <v>10116</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01220648222691985</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.003094292110961342</v>
+        <v>0.003138524687619201</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.03020969973517114</v>
+        <v>0.03084903711535885</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>9</v>
@@ -7894,19 +7894,19 @@
         <v>9780</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>4917</v>
+        <v>4270</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>17951</v>
+        <v>17758</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.04122823932052928</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.02072769087602849</v>
+        <v>0.01800044417797639</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.0756781539965132</v>
+        <v>0.07486258073130549</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>13</v>
@@ -7915,19 +7915,19 @@
         <v>13782</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>7130</v>
+        <v>7962</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>21957</v>
+        <v>23895</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.02438825177784795</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01261746774808332</v>
+        <v>0.01408898127763435</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.03885304549953399</v>
+        <v>0.04228231782660682</v>
       </c>
     </row>
     <row r="48">
@@ -7944,19 +7944,19 @@
         <v>48737</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>36590</v>
+        <v>37307</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>62871</v>
+        <v>63664</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1486274099864375</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1115849615508868</v>
+        <v>0.1137703078224223</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1917309776482814</v>
+        <v>0.1941480974500801</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>42</v>
@@ -7965,19 +7965,19 @@
         <v>42851</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>31196</v>
+        <v>33196</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>56965</v>
+        <v>57427</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1806476488869287</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1315150520311493</v>
+        <v>0.1399449899106848</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2401507424107879</v>
+        <v>0.2420951005711633</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>88</v>
@@ -7986,19 +7986,19 @@
         <v>91588</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>75638</v>
+        <v>75916</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>111408</v>
+        <v>109396</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1620677806019486</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1338440595307993</v>
+        <v>0.1343358344798966</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1971403470024518</v>
+        <v>0.1935805483597645</v>
       </c>
     </row>
     <row r="49">
@@ -8015,19 +8015,19 @@
         <v>117472</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>100059</v>
+        <v>99755</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>134603</v>
+        <v>134722</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3582417278682167</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3051384899430534</v>
+        <v>0.3042106928477424</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4104840138916803</v>
+        <v>0.410847094874748</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>76</v>
@@ -8036,19 +8036,19 @@
         <v>78414</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>63179</v>
+        <v>63985</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>94205</v>
+        <v>93407</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3305703655629307</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2663464106948807</v>
+        <v>0.2697447394363026</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3971440247777541</v>
+        <v>0.393780512539174</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>190</v>
@@ -8057,19 +8057,19 @@
         <v>195885</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>174439</v>
+        <v>173351</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>219013</v>
+        <v>220276</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3466267812722554</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3086758064541684</v>
+        <v>0.3067505320486651</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3875525861921974</v>
+        <v>0.3897874715735231</v>
       </c>
     </row>
     <row r="50">
@@ -8086,19 +8086,19 @@
         <v>154346</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>137908</v>
+        <v>136619</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>174050</v>
+        <v>172884</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.4706915727511739</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.4205637910115303</v>
+        <v>0.4166305083276287</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.5307797333554377</v>
+        <v>0.5272265890057133</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>101</v>
@@ -8107,19 +8107,19 @@
         <v>106163</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>90417</v>
+        <v>90247</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>122630</v>
+        <v>122575</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.4475537462296114</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.3811719358814503</v>
+        <v>0.3804559134834993</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.5169739999118496</v>
+        <v>0.516741293593787</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>248</v>
@@ -8128,19 +8128,19 @@
         <v>260508</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>234888</v>
+        <v>234385</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>284171</v>
+        <v>286830</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.4609795601502176</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.4156435221647621</v>
+        <v>0.4147537856952127</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.5028523769225598</v>
+        <v>0.5075576493262836</v>
       </c>
     </row>
     <row r="51">
@@ -8232,19 +8232,19 @@
         <v>49355</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>34450</v>
+        <v>35110</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>65320</v>
+        <v>64964</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.03484709614230527</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.02432315931603934</v>
+        <v>0.02478935708611852</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.04611930907962818</v>
+        <v>0.04586761422056599</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>44</v>
@@ -8253,19 +8253,19 @@
         <v>46838</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>33632</v>
+        <v>33499</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>60145</v>
+        <v>61553</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.04538621256217294</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.03258958843178725</v>
+        <v>0.03246082091030787</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.05828077450834668</v>
+        <v>0.05964547595355688</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>86</v>
@@ -8274,19 +8274,19 @@
         <v>96193</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>76657</v>
+        <v>78342</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>119090</v>
+        <v>117481</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.03928940013971158</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.03130999850821053</v>
+        <v>0.03199813146186194</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.04864164633517756</v>
+        <v>0.04798457075109055</v>
       </c>
     </row>
     <row r="53">
@@ -8303,19 +8303,19 @@
         <v>82695</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>65917</v>
+        <v>65519</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>103220</v>
+        <v>100919</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.05838622062796289</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.04654024097189426</v>
+        <v>0.04625970911007535</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.07287807588214039</v>
+        <v>0.0712533949471261</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>64</v>
@@ -8324,19 +8324,19 @@
         <v>66098</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>52096</v>
+        <v>51244</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>84397</v>
+        <v>82684</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.06404919617681691</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.05048132526387975</v>
+        <v>0.04965605034307467</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.08178173934134048</v>
+        <v>0.08012187809973255</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>139</v>
@@ -8345,19 +8345,19 @@
         <v>148792</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>127524</v>
+        <v>125586</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>172857</v>
+        <v>176093</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.06077320051466997</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.05208637690769907</v>
+        <v>0.051294828423279</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.07060244630750601</v>
+        <v>0.07192406466489645</v>
       </c>
     </row>
     <row r="54">
@@ -8374,19 +8374,19 @@
         <v>316373</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>283951</v>
+        <v>285417</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>347489</v>
+        <v>348953</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2233738417667883</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2004827171532604</v>
+        <v>0.2015173831198937</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2453432923153634</v>
+        <v>0.2463769330764009</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>238</v>
@@ -8395,19 +8395,19 @@
         <v>244633</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>216677</v>
+        <v>216618</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>271843</v>
+        <v>272337</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.237051194728068</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2099617519826733</v>
+        <v>0.2099048894501001</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2634181683474447</v>
+        <v>0.2638968254105629</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>525</v>
@@ -8416,19 +8416,19 @@
         <v>561005</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>518297</v>
+        <v>521207</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>605000</v>
+        <v>607788</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2291389322462227</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2116949634022964</v>
+        <v>0.2128836152018871</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2471082838287295</v>
+        <v>0.2482472070264778</v>
       </c>
     </row>
     <row r="55">
@@ -8445,19 +8445,19 @@
         <v>392432</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>358255</v>
+        <v>357410</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>427469</v>
+        <v>425502</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2770755041493835</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2529446425043662</v>
+        <v>0.2523484251507141</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.3018131479657425</v>
+        <v>0.3004243767548687</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>270</v>
@@ -8466,19 +8466,19 @@
         <v>270842</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>243192</v>
+        <v>243588</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>300671</v>
+        <v>298998</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2624484117512182</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2356556187297758</v>
+        <v>0.2360393089462461</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2913529468430154</v>
+        <v>0.2897315736914663</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>645</v>
@@ -8487,19 +8487,19 @@
         <v>663274</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>622526</v>
+        <v>621662</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>710515</v>
+        <v>707897</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.27091009251124</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2542666583644057</v>
+        <v>0.2539137530745083</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2902053885768552</v>
+        <v>0.2891360019911718</v>
       </c>
     </row>
     <row r="56">
@@ -8516,19 +8516,19 @@
         <v>575482</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>539984</v>
+        <v>537442</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>615243</v>
+        <v>614065</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.40631733731356</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3812540564445125</v>
+        <v>0.3794592901467831</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.4343905442659603</v>
+        <v>0.4335585657696478</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>392</v>
@@ -8537,19 +8537,19 @@
         <v>403572</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>374554</v>
+        <v>374865</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>436516</v>
+        <v>436857</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.3910649847817239</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.3629459364417841</v>
+        <v>0.3632479141811134</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.4229876113176744</v>
+        <v>0.4233181809406992</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>930</v>
@@ -8558,19 +8558,19 @@
         <v>979054</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>931823</v>
+        <v>927810</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1031158</v>
+        <v>1029855</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.3998883745881557</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.3805971297701626</v>
+        <v>0.3789580748812174</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.4211700538993502</v>
+        <v>0.4206379031531454</v>
       </c>
     </row>
     <row r="57">
